--- a/excel_with_subclasses/without_zeros/park_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/park_with_count_without_zeros.xlsx
@@ -411,7 +411,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -431,9 +431,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2763</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,9 +448,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>374</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -471,9 +465,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>262</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,9 +482,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>178</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -511,9 +499,6 @@
           <t>Q6063204_региональный парк</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>165</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -531,9 +516,6 @@
           <t>Q22746_городской парк</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,9 +533,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>83</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -571,9 +550,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>56</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,9 +567,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -611,9 +584,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -631,9 +601,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -651,9 +618,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -671,9 +635,6 @@
           <t>Q6063204_региональный парк</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -691,9 +652,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -711,9 +669,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -731,9 +686,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -751,9 +703,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -771,9 +720,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -791,9 +737,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -811,9 +754,6 @@
           <t>Q974968_Парк миниатюр</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -831,9 +771,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -851,9 +788,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -871,9 +805,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -891,9 +822,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -911,9 +839,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -931,9 +856,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -951,9 +873,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -971,9 +890,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -991,9 +907,6 @@
           <t>Q1969859_Naturerlebnisraum</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1011,9 +924,6 @@
           <t>Q22746_городской парк</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1031,9 +941,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1051,9 +958,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1071,9 +975,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1091,9 +992,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1111,9 +1009,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1131,9 +1026,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1151,9 +1043,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1171,9 +1060,6 @@
           <t>Q22746_городской парк</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1191,9 +1077,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1211,9 +1094,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1231,9 +1111,6 @@
           <t>Q11429117_Q11429117</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1251,9 +1128,6 @@
           <t>Q350723_country park</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1271,9 +1145,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1291,9 +1162,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1311,9 +1179,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1331,9 +1196,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1351,9 +1213,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,9 +1230,6 @@
           <t>Q22746_городской парк</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1391,9 +1247,6 @@
           <t>Q15982170_парк отдыха</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1411,9 +1264,6 @@
           <t>Q22746_городской парк</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1431,9 +1281,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1451,9 +1298,6 @@
           <t>Q15077303_landscape garden</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1471,9 +1315,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1491,9 +1332,6 @@
           <t>Q22746_городской парк</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1511,9 +1349,6 @@
           <t>Q22698_парк</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1530,9 +1365,6 @@
         <is>
           <t>Q22698_парк</t>
         </is>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1404,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1592,9 +1424,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>807</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1612,9 +1441,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>168</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1632,9 +1458,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>147</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1652,9 +1475,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1672,9 +1492,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1692,9 +1509,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1712,9 +1526,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1732,9 +1543,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1752,9 +1560,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1772,9 +1577,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1792,9 +1594,6 @@
           <t>Q1754255_Список национальных парков Мадагаскара</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1812,9 +1611,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1832,9 +1628,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1852,9 +1645,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1872,9 +1662,6 @@
           <t>Q1754255_Список национальных парков Мадагаскара</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1892,9 +1679,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1912,9 +1696,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1932,9 +1713,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1952,9 +1730,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1972,9 +1747,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1992,9 +1764,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2012,9 +1781,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2032,9 +1798,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2052,9 +1815,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2072,9 +1832,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2092,9 +1849,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2112,9 +1866,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2132,9 +1883,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2152,9 +1900,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2172,9 +1917,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2192,9 +1934,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2212,9 +1951,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2232,9 +1968,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2252,9 +1985,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2272,9 +2002,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2292,9 +2019,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2312,9 +2036,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2332,9 +2053,6 @@
           <t>Q1754255_Список национальных парков Мадагаскара</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2352,9 +2070,6 @@
           <t>Q1896949_Национальные парки Канады</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2372,9 +2087,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2392,9 +2104,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2412,9 +2121,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2432,9 +2138,6 @@
           <t>Q46169_национальный парк</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2451,9 +2154,6 @@
         <is>
           <t>Q46169_национальный парк</t>
         </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2193,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -2513,9 +2213,7 @@
           <t>Q728904_природный парк</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>105</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,9 +2231,7 @@
           <t>Q19753982_природный парк Франции</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>54</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2553,9 +2249,7 @@
           <t>Q728904_природный парк</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>42</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2573,9 +2267,7 @@
           <t>Q19753982_природный парк Франции</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2593,9 +2285,7 @@
           <t>Q728904_природный парк</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2613,9 +2303,7 @@
           <t>Q728904_природный парк</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
